--- a/donation.xlsx
+++ b/donation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addis\Documents\GitHub\PhysWiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>支付宝</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>总计</t>
+  </si>
+  <si>
+    <t>新*</t>
   </si>
 </sst>
 </file>
@@ -444,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -474,7 +477,7 @@
       </c>
       <c r="G1">
         <f>SUM(D:D)</f>
-        <v>663.66</v>
+        <v>666.66</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -769,6 +772,20 @@
       </c>
       <c r="D22">
         <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>43137</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
